--- a/Data/generated_database_v2.0.xlsx
+++ b/Data/generated_database_v2.0.xlsx
@@ -844,7 +844,7 @@
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" s="2" t="n">
-        <v>45279</v>
+        <v>45303</v>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
